--- a/template.xlsx
+++ b/template.xlsx
@@ -8,14 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matthewlyell/Documents/repos/my_projects/work/report_builder/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8433952F-6697-5F4B-9D62-FFCA0720E252}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E7857AB-FAAF-0749-B2A2-3E2E1DAB5CA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1100" yWindow="820" windowWidth="28040" windowHeight="17440" xr2:uid="{ACA19573-05E5-E84D-A47D-2CC902E6D0F1}"/>
+    <workbookView xWindow="1100" yWindow="820" windowWidth="28040" windowHeight="17440" activeTab="1" xr2:uid="{ACA19573-05E5-E84D-A47D-2CC902E6D0F1}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <externalReferences>
+    <externalReference r:id="rId3"/>
+  </externalReferences>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,37 +38,83 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
-    <t>Supervisor</t>
+    <t>User</t>
   </si>
   <si>
-    <t>Jensen</t>
+    <t>Ch1</t>
   </si>
   <si>
-    <t>Christopher</t>
+    <t xml:space="preserve">Ch1 %  </t>
   </si>
   <si>
-    <t>Soria</t>
+    <t>Ch2</t>
   </si>
   <si>
-    <t>Ubelhor</t>
+    <t>Ch2 %</t>
   </si>
   <si>
-    <t>Dickens</t>
+    <t>Fire</t>
   </si>
   <si>
-    <t>Lyell</t>
+    <t xml:space="preserve">Fire% </t>
+  </si>
+  <si>
+    <t>Phones</t>
+  </si>
+  <si>
+    <t>Phones %</t>
+  </si>
+  <si>
+    <t>Total</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -79,7 +129,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -87,15 +137,31 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -108,6 +174,484 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+      <sheetName val="Sheet2"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="A3" t="str">
+            <v>Baiseri,Ashley</v>
+          </cell>
+          <cell r="B3">
+            <v>0</v>
+          </cell>
+          <cell r="C3">
+            <v>19.48</v>
+          </cell>
+          <cell r="D3">
+            <v>0</v>
+          </cell>
+          <cell r="E3">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4" t="str">
+            <v>Banks,Trisha</v>
+          </cell>
+          <cell r="B4">
+            <v>0</v>
+          </cell>
+          <cell r="C4">
+            <v>5.23</v>
+          </cell>
+          <cell r="D4">
+            <v>0</v>
+          </cell>
+          <cell r="E4">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5" t="str">
+            <v>Buehler,Samantha</v>
+          </cell>
+          <cell r="B5">
+            <v>0</v>
+          </cell>
+          <cell r="C5">
+            <v>3.3</v>
+          </cell>
+          <cell r="D5">
+            <v>0</v>
+          </cell>
+          <cell r="E5">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6" t="str">
+            <v>Burbank, Toni</v>
+          </cell>
+          <cell r="B6">
+            <v>5.52</v>
+          </cell>
+          <cell r="C6">
+            <v>3.73</v>
+          </cell>
+          <cell r="D6">
+            <v>12.28</v>
+          </cell>
+          <cell r="E6">
+            <v>25.016666666666669</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7" t="str">
+            <v>Clinton, Shannon</v>
+          </cell>
+          <cell r="B7">
+            <v>0</v>
+          </cell>
+          <cell r="C7">
+            <v>8.77</v>
+          </cell>
+          <cell r="D7">
+            <v>0</v>
+          </cell>
+          <cell r="E7">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8" t="str">
+            <v>Cook, Michele</v>
+          </cell>
+          <cell r="B8">
+            <v>0</v>
+          </cell>
+          <cell r="C8">
+            <v>3.3</v>
+          </cell>
+          <cell r="D8">
+            <v>0</v>
+          </cell>
+          <cell r="E8">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="A9" t="str">
+            <v>Davis,Katie</v>
+          </cell>
+          <cell r="B9">
+            <v>0</v>
+          </cell>
+          <cell r="C9">
+            <v>4.9800000000000004</v>
+          </cell>
+          <cell r="D9">
+            <v>0</v>
+          </cell>
+          <cell r="E9">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="A10" t="str">
+            <v>Delatorre, Christina</v>
+          </cell>
+          <cell r="B10">
+            <v>4.05</v>
+          </cell>
+          <cell r="C10">
+            <v>9.5500000000000007</v>
+          </cell>
+          <cell r="D10">
+            <v>7.18</v>
+          </cell>
+          <cell r="E10">
+            <v>11.1</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="A11" t="str">
+            <v>Diaz-Castillo, Roseana</v>
+          </cell>
+          <cell r="B11">
+            <v>23.78</v>
+          </cell>
+          <cell r="C11">
+            <v>5.98</v>
+          </cell>
+          <cell r="D11">
+            <v>7.47</v>
+          </cell>
+          <cell r="E11">
+            <v>8.83</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="A12" t="str">
+            <v>Dickey,Nichol</v>
+          </cell>
+          <cell r="B12">
+            <v>9.4499999999999993</v>
+          </cell>
+          <cell r="C12">
+            <v>2.5</v>
+          </cell>
+          <cell r="D12">
+            <v>9.73</v>
+          </cell>
+          <cell r="E12">
+            <v>6.82</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="A13" t="str">
+            <v>Dominguez, Diane</v>
+          </cell>
+          <cell r="B13">
+            <v>0</v>
+          </cell>
+          <cell r="C13">
+            <v>7.33</v>
+          </cell>
+          <cell r="D13">
+            <v>0</v>
+          </cell>
+          <cell r="E13">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="A14" t="str">
+            <v>Driskill, Valerie</v>
+          </cell>
+          <cell r="B14">
+            <v>0</v>
+          </cell>
+          <cell r="C14">
+            <v>3.12</v>
+          </cell>
+          <cell r="D14">
+            <v>0</v>
+          </cell>
+          <cell r="E14">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="A15" t="str">
+            <v>Duncanson,Kimberly</v>
+          </cell>
+          <cell r="B15">
+            <v>0</v>
+          </cell>
+          <cell r="C15">
+            <v>3.98</v>
+          </cell>
+          <cell r="D15">
+            <v>0</v>
+          </cell>
+          <cell r="E15">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="A16" t="str">
+            <v>Goedhart, Corrie</v>
+          </cell>
+          <cell r="B16">
+            <v>0</v>
+          </cell>
+          <cell r="C16">
+            <v>2.87</v>
+          </cell>
+          <cell r="D16">
+            <v>0</v>
+          </cell>
+          <cell r="E16">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="A17" t="str">
+            <v>Hogan, Brian</v>
+          </cell>
+          <cell r="B17">
+            <v>0</v>
+          </cell>
+          <cell r="C17">
+            <v>5.45</v>
+          </cell>
+          <cell r="D17">
+            <v>0</v>
+          </cell>
+          <cell r="E17">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="A18" t="str">
+            <v>Kuhse,Jennifer</v>
+          </cell>
+          <cell r="B18">
+            <v>14.12</v>
+          </cell>
+          <cell r="C18">
+            <v>11.4</v>
+          </cell>
+          <cell r="D18">
+            <v>3.28</v>
+          </cell>
+          <cell r="E18">
+            <v>10.77</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="A19" t="str">
+            <v>Lopez, Shannon</v>
+          </cell>
+          <cell r="B19">
+            <v>0</v>
+          </cell>
+          <cell r="C19">
+            <v>0</v>
+          </cell>
+          <cell r="D19">
+            <v>28.06666666666667</v>
+          </cell>
+          <cell r="E19">
+            <v>19.28</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="A20" t="str">
+            <v>Lyell, Matthew</v>
+          </cell>
+          <cell r="B20">
+            <v>0</v>
+          </cell>
+          <cell r="C20">
+            <v>0</v>
+          </cell>
+          <cell r="D20">
+            <v>0</v>
+          </cell>
+          <cell r="E20">
+            <v>3.18</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="A21" t="str">
+            <v>Olivas,Marissa</v>
+          </cell>
+          <cell r="B21">
+            <v>0</v>
+          </cell>
+          <cell r="C21">
+            <v>11.55</v>
+          </cell>
+          <cell r="D21">
+            <v>0</v>
+          </cell>
+          <cell r="E21">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="A22" t="str">
+            <v>Richardson, Tanya</v>
+          </cell>
+          <cell r="B22">
+            <v>0</v>
+          </cell>
+          <cell r="C22">
+            <v>3.75</v>
+          </cell>
+          <cell r="D22">
+            <v>0</v>
+          </cell>
+          <cell r="E22">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="A23" t="str">
+            <v>Soria,Madison</v>
+          </cell>
+          <cell r="B23">
+            <v>0</v>
+          </cell>
+          <cell r="C23">
+            <v>11.52</v>
+          </cell>
+          <cell r="D23">
+            <v>0</v>
+          </cell>
+          <cell r="E23">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="A24" t="str">
+            <v>Steele, Aimee</v>
+          </cell>
+          <cell r="B24">
+            <v>0</v>
+          </cell>
+          <cell r="C24">
+            <v>6.18</v>
+          </cell>
+          <cell r="D24">
+            <v>0</v>
+          </cell>
+          <cell r="E24">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="A25" t="str">
+            <v>Stoiber,Erin</v>
+          </cell>
+          <cell r="B25">
+            <v>0</v>
+          </cell>
+          <cell r="C25">
+            <v>3.93</v>
+          </cell>
+          <cell r="D25">
+            <v>0</v>
+          </cell>
+          <cell r="E25">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="A26" t="str">
+            <v>Wagoner,Olivia</v>
+          </cell>
+          <cell r="B26">
+            <v>0</v>
+          </cell>
+          <cell r="C26">
+            <v>7.13</v>
+          </cell>
+          <cell r="D26">
+            <v>0</v>
+          </cell>
+          <cell r="E26">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="A27" t="str">
+            <v>Watson,Michelle</v>
+          </cell>
+          <cell r="B27">
+            <v>0</v>
+          </cell>
+          <cell r="C27">
+            <v>7.6</v>
+          </cell>
+          <cell r="D27">
+            <v>0</v>
+          </cell>
+          <cell r="E27">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="A28" t="str">
+            <v>Whitlock,Nicole</v>
+          </cell>
+          <cell r="B28">
+            <v>27.05</v>
+          </cell>
+          <cell r="C28">
+            <v>3.42</v>
+          </cell>
+          <cell r="D28">
+            <v>6.72</v>
+          </cell>
+          <cell r="E28">
+            <v>18.95</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="A29" t="str">
+            <v>Williamson,Tonya</v>
+          </cell>
+          <cell r="B29">
+            <v>0</v>
+          </cell>
+          <cell r="C29">
+            <v>4.08</v>
+          </cell>
+          <cell r="D29">
+            <v>0</v>
+          </cell>
+          <cell r="E29">
+            <v>0</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -406,48 +950,1168 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E0049BB-BA82-314D-B397-C8F39A6F67BB}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B39413E8-5FB5-874F-8FE8-617C7CA6B007}">
-  <dimension ref="A1:A7"/>
+  <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="20.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="1" spans="1:10" ht="22" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A2" t="str" cm="1">
+        <f t="array" ref="A2:A28">[1]Sheet1!A3:A29</f>
+        <v>Baiseri,Ashley</v>
+      </c>
+      <c r="B2" s="2">
+        <f>[1]Sheet1!C3</f>
+        <v>19.48</v>
+      </c>
+      <c r="C2" s="3">
+        <f>B2/J2</f>
+        <v>1</v>
+      </c>
+      <c r="D2" s="2">
+        <f>[1]Sheet1!D3</f>
+        <v>0</v>
+      </c>
+      <c r="E2" s="3">
+        <f>D2/J2</f>
+        <v>0</v>
+      </c>
+      <c r="F2" s="2">
+        <f>[1]Sheet1!B3</f>
+        <v>0</v>
+      </c>
+      <c r="G2" s="3">
+        <f ca="1">G2/J2</f>
+        <v>0</v>
+      </c>
+      <c r="H2" s="2">
+        <f>[1]Sheet1!E3</f>
+        <v>0</v>
+      </c>
+      <c r="I2" s="3">
+        <f ca="1">I2/J2</f>
+        <v>0</v>
+      </c>
+      <c r="J2" s="2">
+        <f>SUM(B2,D2,F2,H2)</f>
+        <v>19.48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" t="str">
+        <v>Banks,Trisha</v>
+      </c>
+      <c r="B3" s="2">
+        <f>[1]Sheet1!C4</f>
+        <v>5.23</v>
+      </c>
+      <c r="C3" s="3">
+        <f t="shared" ref="C3:C28" si="0">B3/J3</f>
+        <v>1</v>
+      </c>
+      <c r="D3" s="2">
+        <f>[1]Sheet1!D4</f>
+        <v>0</v>
+      </c>
+      <c r="E3" s="3">
+        <f t="shared" ref="E3:E28" si="1">D3/J3</f>
+        <v>0</v>
+      </c>
+      <c r="F3" s="2">
+        <f>[1]Sheet1!B4</f>
+        <v>0</v>
+      </c>
+      <c r="G3" s="3">
+        <f t="shared" ref="G3:G28" ca="1" si="2">G3/J3</f>
+        <v>0</v>
+      </c>
+      <c r="H3" s="2">
+        <f>[1]Sheet1!E4</f>
+        <v>0</v>
+      </c>
+      <c r="I3" s="3">
+        <f t="shared" ref="I3:I28" ca="1" si="3">I3/J3</f>
+        <v>0</v>
+      </c>
+      <c r="J3" s="2">
+        <f t="shared" ref="J3:J28" si="4">SUM(B3,D3,F3,H3)</f>
+        <v>5.23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" t="str">
+        <v>Buehler,Samantha</v>
+      </c>
+      <c r="B4" s="2">
+        <f>[1]Sheet1!C5</f>
+        <v>3.3</v>
+      </c>
+      <c r="C4" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D4" s="2">
+        <f>[1]Sheet1!D5</f>
+        <v>0</v>
+      </c>
+      <c r="E4" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F4" s="2">
+        <f>[1]Sheet1!B5</f>
+        <v>0</v>
+      </c>
+      <c r="G4" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H4" s="2">
+        <f>[1]Sheet1!E5</f>
+        <v>0</v>
+      </c>
+      <c r="I4" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J4" s="2">
+        <f t="shared" si="4"/>
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" t="str">
+        <v>Burbank, Toni</v>
+      </c>
+      <c r="B5" s="2">
+        <f>[1]Sheet1!C6</f>
+        <v>3.73</v>
+      </c>
+      <c r="C5" s="3">
+        <f t="shared" si="0"/>
+        <v>8.0134631910627321E-2</v>
+      </c>
+      <c r="D5" s="2">
+        <f>[1]Sheet1!D6</f>
+        <v>12.28</v>
+      </c>
+      <c r="E5" s="3">
+        <f t="shared" si="1"/>
+        <v>0.2638212546548267</v>
+      </c>
+      <c r="F5" s="2">
+        <f>[1]Sheet1!B6</f>
+        <v>5.52</v>
+      </c>
+      <c r="G5" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H5" s="2">
+        <f>[1]Sheet1!E6</f>
+        <v>25.016666666666669</v>
+      </c>
+      <c r="I5" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J5" s="2">
+        <f t="shared" si="4"/>
+        <v>46.546666666666667</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" t="str">
+        <v>Clinton, Shannon</v>
+      </c>
+      <c r="B6" s="2">
+        <f>[1]Sheet1!C7</f>
+        <v>8.77</v>
+      </c>
+      <c r="C6" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D6" s="2">
+        <f>[1]Sheet1!D7</f>
+        <v>0</v>
+      </c>
+      <c r="E6" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F6" s="2">
+        <f>[1]Sheet1!B7</f>
+        <v>0</v>
+      </c>
+      <c r="G6" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H6" s="2">
+        <f>[1]Sheet1!E7</f>
+        <v>0</v>
+      </c>
+      <c r="I6" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J6" s="2">
+        <f t="shared" si="4"/>
+        <v>8.77</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" t="str">
+        <v>Cook, Michele</v>
+      </c>
+      <c r="B7" s="2">
+        <f>[1]Sheet1!C8</f>
+        <v>3.3</v>
+      </c>
+      <c r="C7" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D7" s="2">
+        <f>[1]Sheet1!D8</f>
+        <v>0</v>
+      </c>
+      <c r="E7" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F7" s="2">
+        <f>[1]Sheet1!B8</f>
+        <v>0</v>
+      </c>
+      <c r="G7" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H7" s="2">
+        <f>[1]Sheet1!E8</f>
+        <v>0</v>
+      </c>
+      <c r="I7" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J7" s="2">
+        <f t="shared" si="4"/>
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" t="str">
+        <v>Davis,Katie</v>
+      </c>
+      <c r="B8" s="2">
+        <f>[1]Sheet1!C9</f>
+        <v>4.9800000000000004</v>
+      </c>
+      <c r="C8" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D8" s="2">
+        <f>[1]Sheet1!D9</f>
+        <v>0</v>
+      </c>
+      <c r="E8" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F8" s="2">
+        <f>[1]Sheet1!B9</f>
+        <v>0</v>
+      </c>
+      <c r="G8" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H8" s="2">
+        <f>[1]Sheet1!E9</f>
+        <v>0</v>
+      </c>
+      <c r="I8" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J8" s="2">
+        <f t="shared" si="4"/>
+        <v>4.9800000000000004</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" t="str">
+        <v>Delatorre, Christina</v>
+      </c>
+      <c r="B9" s="2">
+        <f>[1]Sheet1!C10</f>
+        <v>9.5500000000000007</v>
+      </c>
+      <c r="C9" s="3">
+        <f t="shared" si="0"/>
+        <v>0.2995608531994981</v>
+      </c>
+      <c r="D9" s="2">
+        <f>[1]Sheet1!D10</f>
+        <v>7.18</v>
+      </c>
+      <c r="E9" s="3">
+        <f t="shared" si="1"/>
+        <v>0.22521957340025092</v>
+      </c>
+      <c r="F9" s="2">
+        <f>[1]Sheet1!B10</f>
+        <v>4.05</v>
+      </c>
+      <c r="G9" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H9" s="2">
+        <f>[1]Sheet1!E10</f>
+        <v>11.1</v>
+      </c>
+      <c r="I9" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J9" s="2">
+        <f t="shared" si="4"/>
+        <v>31.880000000000003</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" t="str">
+        <v>Diaz-Castillo, Roseana</v>
+      </c>
+      <c r="B10" s="2">
+        <f>[1]Sheet1!C11</f>
+        <v>5.98</v>
+      </c>
+      <c r="C10" s="3">
+        <f t="shared" si="0"/>
+        <v>0.12983065566652194</v>
+      </c>
+      <c r="D10" s="2">
+        <f>[1]Sheet1!D11</f>
+        <v>7.47</v>
+      </c>
+      <c r="E10" s="3">
+        <f t="shared" si="1"/>
+        <v>0.16217976552323055</v>
+      </c>
+      <c r="F10" s="2">
+        <f>[1]Sheet1!B11</f>
+        <v>23.78</v>
+      </c>
+      <c r="G10" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H10" s="2">
+        <f>[1]Sheet1!E11</f>
+        <v>8.83</v>
+      </c>
+      <c r="I10" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J10" s="2">
+        <f t="shared" si="4"/>
+        <v>46.06</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" t="str">
+        <v>Dickey,Nichol</v>
+      </c>
+      <c r="B11" s="2">
+        <f>[1]Sheet1!C12</f>
+        <v>2.5</v>
+      </c>
+      <c r="C11" s="3">
+        <f t="shared" si="0"/>
+        <v>8.771929824561403E-2</v>
+      </c>
+      <c r="D11" s="2">
+        <f>[1]Sheet1!D12</f>
+        <v>9.73</v>
+      </c>
+      <c r="E11" s="3">
+        <f t="shared" si="1"/>
+        <v>0.34140350877192982</v>
+      </c>
+      <c r="F11" s="2">
+        <f>[1]Sheet1!B12</f>
+        <v>9.4499999999999993</v>
+      </c>
+      <c r="G11" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H11" s="2">
+        <f>[1]Sheet1!E12</f>
+        <v>6.82</v>
+      </c>
+      <c r="I11" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J11" s="2">
+        <f t="shared" si="4"/>
+        <v>28.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" t="str">
+        <v>Dominguez, Diane</v>
+      </c>
+      <c r="B12" s="2">
+        <f>[1]Sheet1!C13</f>
+        <v>7.33</v>
+      </c>
+      <c r="C12" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D12" s="2">
+        <f>[1]Sheet1!D13</f>
+        <v>0</v>
+      </c>
+      <c r="E12" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F12" s="2">
+        <f>[1]Sheet1!B13</f>
+        <v>0</v>
+      </c>
+      <c r="G12" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H12" s="2">
+        <f>[1]Sheet1!E13</f>
+        <v>0</v>
+      </c>
+      <c r="I12" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J12" s="2">
+        <f t="shared" si="4"/>
+        <v>7.33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" t="str">
+        <v>Driskill, Valerie</v>
+      </c>
+      <c r="B13" s="2">
+        <f>[1]Sheet1!C14</f>
+        <v>3.12</v>
+      </c>
+      <c r="C13" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D13" s="2">
+        <f>[1]Sheet1!D14</f>
+        <v>0</v>
+      </c>
+      <c r="E13" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F13" s="2">
+        <f>[1]Sheet1!B14</f>
+        <v>0</v>
+      </c>
+      <c r="G13" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H13" s="2">
+        <f>[1]Sheet1!E14</f>
+        <v>0</v>
+      </c>
+      <c r="I13" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J13" s="2">
+        <f t="shared" si="4"/>
+        <v>3.12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" t="str">
+        <v>Duncanson,Kimberly</v>
+      </c>
+      <c r="B14" s="2">
+        <f>[1]Sheet1!C15</f>
+        <v>3.98</v>
+      </c>
+      <c r="C14" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D14" s="2">
+        <f>[1]Sheet1!D15</f>
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F14" s="2">
+        <f>[1]Sheet1!B15</f>
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H14" s="2">
+        <f>[1]Sheet1!E15</f>
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J14" s="2">
+        <f t="shared" si="4"/>
+        <v>3.98</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" t="str">
+        <v>Goedhart, Corrie</v>
+      </c>
+      <c r="B15" s="2">
+        <f>[1]Sheet1!C16</f>
+        <v>2.87</v>
+      </c>
+      <c r="C15" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D15" s="2">
+        <f>[1]Sheet1!D16</f>
+        <v>0</v>
+      </c>
+      <c r="E15" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F15" s="2">
+        <f>[1]Sheet1!B16</f>
+        <v>0</v>
+      </c>
+      <c r="G15" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H15" s="2">
+        <f>[1]Sheet1!E16</f>
+        <v>0</v>
+      </c>
+      <c r="I15" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J15" s="2">
+        <f t="shared" si="4"/>
+        <v>2.87</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" t="str">
+        <v>Hogan, Brian</v>
+      </c>
+      <c r="B16" s="2">
+        <f>[1]Sheet1!C17</f>
+        <v>5.45</v>
+      </c>
+      <c r="C16" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D16" s="2">
+        <f>[1]Sheet1!D17</f>
+        <v>0</v>
+      </c>
+      <c r="E16" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F16" s="2">
+        <f>[1]Sheet1!B17</f>
+        <v>0</v>
+      </c>
+      <c r="G16" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H16" s="2">
+        <f>[1]Sheet1!E17</f>
+        <v>0</v>
+      </c>
+      <c r="I16" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J16" s="2">
+        <f t="shared" si="4"/>
+        <v>5.45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" t="str">
+        <v>Kuhse,Jennifer</v>
+      </c>
+      <c r="B17" s="2">
+        <f>[1]Sheet1!C18</f>
+        <v>11.4</v>
+      </c>
+      <c r="C17" s="3">
+        <f t="shared" si="0"/>
+        <v>0.28809704321455654</v>
+      </c>
+      <c r="D17" s="2">
+        <f>[1]Sheet1!D18</f>
+        <v>3.28</v>
+      </c>
+      <c r="E17" s="3">
+        <f t="shared" si="1"/>
+        <v>8.2891079100328544E-2</v>
+      </c>
+      <c r="F17" s="2">
+        <f>[1]Sheet1!B18</f>
+        <v>14.12</v>
+      </c>
+      <c r="G17" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H17" s="2">
+        <f>[1]Sheet1!E18</f>
+        <v>10.77</v>
+      </c>
+      <c r="I17" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J17" s="2">
+        <f t="shared" si="4"/>
+        <v>39.569999999999993</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" t="str">
+        <v>Lopez, Shannon</v>
+      </c>
+      <c r="B18" s="2">
+        <f>[1]Sheet1!C19</f>
+        <v>0</v>
+      </c>
+      <c r="C18" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D18" s="2">
+        <f>[1]Sheet1!D19</f>
+        <v>28.06666666666667</v>
+      </c>
+      <c r="E18" s="3">
+        <f t="shared" si="1"/>
+        <v>0.59279076316530555</v>
+      </c>
+      <c r="F18" s="2">
+        <f>[1]Sheet1!B19</f>
+        <v>0</v>
+      </c>
+      <c r="G18" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H18" s="2">
+        <f>[1]Sheet1!E19</f>
+        <v>19.28</v>
+      </c>
+      <c r="I18" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J18" s="2">
+        <f t="shared" si="4"/>
+        <v>47.346666666666671</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" t="str">
+        <v>Lyell, Matthew</v>
+      </c>
+      <c r="B19" s="2">
+        <f>[1]Sheet1!C20</f>
+        <v>0</v>
+      </c>
+      <c r="C19" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D19" s="2">
+        <f>[1]Sheet1!D20</f>
+        <v>0</v>
+      </c>
+      <c r="E19" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F19" s="2">
+        <f>[1]Sheet1!B20</f>
+        <v>0</v>
+      </c>
+      <c r="G19" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H19" s="2">
+        <f>[1]Sheet1!E20</f>
+        <v>3.18</v>
+      </c>
+      <c r="I19" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J19" s="2">
+        <f t="shared" si="4"/>
+        <v>3.18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" t="str">
+        <v>Olivas,Marissa</v>
+      </c>
+      <c r="B20" s="2">
+        <f>[1]Sheet1!C21</f>
+        <v>11.55</v>
+      </c>
+      <c r="C20" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D20" s="2">
+        <f>[1]Sheet1!D21</f>
+        <v>0</v>
+      </c>
+      <c r="E20" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F20" s="2">
+        <f>[1]Sheet1!B21</f>
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H20" s="2">
+        <f>[1]Sheet1!E21</f>
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J20" s="2">
+        <f t="shared" si="4"/>
+        <v>11.55</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" t="str">
+        <v>Richardson, Tanya</v>
+      </c>
+      <c r="B21" s="2">
+        <f>[1]Sheet1!C22</f>
+        <v>3.75</v>
+      </c>
+      <c r="C21" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D21" s="2">
+        <f>[1]Sheet1!D22</f>
+        <v>0</v>
+      </c>
+      <c r="E21" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F21" s="2">
+        <f>[1]Sheet1!B22</f>
+        <v>0</v>
+      </c>
+      <c r="G21" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H21" s="2">
+        <f>[1]Sheet1!E22</f>
+        <v>0</v>
+      </c>
+      <c r="I21" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J21" s="2">
+        <f t="shared" si="4"/>
+        <v>3.75</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22" t="str">
+        <v>Soria,Madison</v>
+      </c>
+      <c r="B22" s="2">
+        <f>[1]Sheet1!C23</f>
+        <v>11.52</v>
+      </c>
+      <c r="C22" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D22" s="2">
+        <f>[1]Sheet1!D23</f>
+        <v>0</v>
+      </c>
+      <c r="E22" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F22" s="2">
+        <f>[1]Sheet1!B23</f>
+        <v>0</v>
+      </c>
+      <c r="G22" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H22" s="2">
+        <f>[1]Sheet1!E23</f>
+        <v>0</v>
+      </c>
+      <c r="I22" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J22" s="2">
+        <f t="shared" si="4"/>
+        <v>11.52</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" t="str">
+        <v>Steele, Aimee</v>
+      </c>
+      <c r="B23" s="2">
+        <f>[1]Sheet1!C24</f>
+        <v>6.18</v>
+      </c>
+      <c r="C23" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D23" s="2">
+        <f>[1]Sheet1!D24</f>
+        <v>0</v>
+      </c>
+      <c r="E23" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F23" s="2">
+        <f>[1]Sheet1!B24</f>
+        <v>0</v>
+      </c>
+      <c r="G23" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H23" s="2">
+        <f>[1]Sheet1!E24</f>
+        <v>0</v>
+      </c>
+      <c r="I23" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J23" s="2">
+        <f t="shared" si="4"/>
+        <v>6.18</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24" t="str">
+        <v>Stoiber,Erin</v>
+      </c>
+      <c r="B24" s="2">
+        <f>[1]Sheet1!C25</f>
+        <v>3.93</v>
+      </c>
+      <c r="C24" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D24" s="2">
+        <f>[1]Sheet1!D25</f>
+        <v>0</v>
+      </c>
+      <c r="E24" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F24" s="2">
+        <f>[1]Sheet1!B25</f>
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H24" s="2">
+        <f>[1]Sheet1!E25</f>
+        <v>0</v>
+      </c>
+      <c r="I24" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J24" s="2">
+        <f t="shared" si="4"/>
+        <v>3.93</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25" t="str">
+        <v>Wagoner,Olivia</v>
+      </c>
+      <c r="B25" s="2">
+        <f>[1]Sheet1!C26</f>
+        <v>7.13</v>
+      </c>
+      <c r="C25" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D25" s="2">
+        <f>[1]Sheet1!D26</f>
+        <v>0</v>
+      </c>
+      <c r="E25" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F25" s="2">
+        <f>[1]Sheet1!B26</f>
+        <v>0</v>
+      </c>
+      <c r="G25" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H25" s="2">
+        <f>[1]Sheet1!E26</f>
+        <v>0</v>
+      </c>
+      <c r="I25" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J25" s="2">
+        <f t="shared" si="4"/>
+        <v>7.13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26" t="str">
+        <v>Watson,Michelle</v>
+      </c>
+      <c r="B26" s="2">
+        <f>[1]Sheet1!C27</f>
+        <v>7.6</v>
+      </c>
+      <c r="C26" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D26" s="2">
+        <f>[1]Sheet1!D27</f>
+        <v>0</v>
+      </c>
+      <c r="E26" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F26" s="2">
+        <f>[1]Sheet1!B27</f>
+        <v>0</v>
+      </c>
+      <c r="G26" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H26" s="2">
+        <f>[1]Sheet1!E27</f>
+        <v>0</v>
+      </c>
+      <c r="I26" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J26" s="2">
+        <f t="shared" si="4"/>
+        <v>7.6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27" t="str">
+        <v>Whitlock,Nicole</v>
+      </c>
+      <c r="B27" s="2">
+        <f>[1]Sheet1!C28</f>
+        <v>3.42</v>
+      </c>
+      <c r="C27" s="3">
+        <f t="shared" si="0"/>
+        <v>6.0919130744567153E-2</v>
+      </c>
+      <c r="D27" s="2">
+        <f>[1]Sheet1!D28</f>
+        <v>6.72</v>
+      </c>
+      <c r="E27" s="3">
+        <f t="shared" si="1"/>
+        <v>0.11970074812967581</v>
+      </c>
+      <c r="F27" s="2">
+        <f>[1]Sheet1!B28</f>
+        <v>27.05</v>
+      </c>
+      <c r="G27" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H27" s="2">
+        <f>[1]Sheet1!E28</f>
+        <v>18.95</v>
+      </c>
+      <c r="I27" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J27" s="2">
+        <f t="shared" si="4"/>
+        <v>56.14</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28" t="str">
+        <v>Williamson,Tonya</v>
+      </c>
+      <c r="B28" s="2">
+        <f>[1]Sheet1!C29</f>
+        <v>4.08</v>
+      </c>
+      <c r="C28" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D28" s="2">
+        <f>[1]Sheet1!D29</f>
+        <v>0</v>
+      </c>
+      <c r="E28" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F28" s="2">
+        <f>[1]Sheet1!B29</f>
+        <v>0</v>
+      </c>
+      <c r="G28" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H28" s="2">
+        <f>[1]Sheet1!E29</f>
+        <v>0</v>
+      </c>
+      <c r="I28" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J28" s="2">
+        <f t="shared" si="4"/>
+        <v>4.08</v>
       </c>
     </row>
   </sheetData>
